--- a/planning & devis.xlsx
+++ b/planning & devis.xlsx
@@ -67,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +111,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -185,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -371,15 +379,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -415,16 +429,22 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,6 +456,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -466,13 +495,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,18 +505,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -502,13 +513,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -821,515 +835,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="13"/>
-    <col min="3" max="3" width="35.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="10" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="42" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="D2" s="41"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>43770</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="11">
+      <c r="C4" s="10">
         <v>43800</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>43771</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="11">
+      <c r="C5" s="10">
         <v>43801</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+      <c r="D5" s="21"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>43772</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="11">
+      <c r="B6" s="18"/>
+      <c r="C6" s="10">
         <v>43802</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
+      <c r="D6" s="22"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>43773</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="11">
+      <c r="B7" s="18"/>
+      <c r="C7" s="10">
         <v>43803</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="D7" s="5"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>43774</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="11">
+      <c r="B8" s="19"/>
+      <c r="C8" s="10">
         <v>43804</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+      <c r="D8" s="5"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>43775</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="11">
+      <c r="B9" s="5"/>
+      <c r="C9" s="10">
         <v>43805</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>43776</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="11">
+      <c r="B10" s="5"/>
+      <c r="C10" s="10">
         <v>43806</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
+      <c r="D10" s="21"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>43777</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="11">
+      <c r="C11" s="10">
         <v>43807</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
+      <c r="D11" s="21"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>43778</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="11">
+      <c r="C12" s="10">
         <v>43808</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
+      <c r="D12" s="21"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>43779</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="11">
+      <c r="B13" s="38"/>
+      <c r="C13" s="10">
         <v>43809</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
+      <c r="D13" s="22"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>43780</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="11">
+      <c r="B14" s="38"/>
+      <c r="C14" s="10">
         <v>43810</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
+      <c r="D14" s="5"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>43781</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="11">
+      <c r="B15" s="39"/>
+      <c r="C15" s="10">
         <v>43811</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
+      <c r="D15" s="5"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>43782</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="11">
+      <c r="B16" s="5"/>
+      <c r="C16" s="10">
         <v>43812</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>43783</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="11">
+      <c r="B17" s="5"/>
+      <c r="C17" s="10">
         <v>43813</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="D17" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>43784</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="11">
+      <c r="C18" s="10">
         <v>43814</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
+      <c r="D18" s="28"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>43785</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="11">
+      <c r="B19" s="43"/>
+      <c r="C19" s="10">
         <v>43815</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
+      <c r="D19" s="28"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>43786</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="11">
+      <c r="B20" s="43"/>
+      <c r="C20" s="10">
         <v>43816</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
+      <c r="D20" s="29"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>43787</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="11">
+      <c r="B21" s="43"/>
+      <c r="C21" s="10">
         <v>43817</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
+      <c r="D21" s="5"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>43788</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="11">
+      <c r="B22" s="44"/>
+      <c r="C22" s="10">
         <v>43818</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
+      <c r="D22" s="5"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>43789</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="11">
+      <c r="B23" s="5"/>
+      <c r="C23" s="10">
         <v>43819</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="D23" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="11">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>43790</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="11">
+      <c r="B24" s="5"/>
+      <c r="C24" s="10">
         <v>43820</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="11">
+      <c r="D24" s="31"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>43791</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="11">
+      <c r="C25" s="10">
         <v>43821</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="11">
+      <c r="D25" s="31"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>43792</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="11">
+      <c r="C26" s="10">
         <v>43822</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="11">
+      <c r="D26" s="31"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>43793</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="11">
+      <c r="B27" s="21"/>
+      <c r="C27" s="10">
         <v>43823</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
+      <c r="D27" s="32"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <v>43794</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="11">
+      <c r="B28" s="21"/>
+      <c r="C28" s="10">
         <v>43824</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="11">
+      <c r="D28" s="5"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>43795</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="11">
+      <c r="B29" s="22"/>
+      <c r="C29" s="10">
         <v>43825</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="11">
+      <c r="D29" s="5"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>43796</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="11">
+      <c r="B30" s="5"/>
+      <c r="C30" s="10">
         <v>43826</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="D30" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="11">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>43797</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="11">
+      <c r="B31" s="5"/>
+      <c r="C31" s="10">
         <v>43827</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="11">
+      <c r="D31" s="34"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>43798</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="11">
+      <c r="C32" s="10">
         <v>43828</v>
       </c>
-      <c r="G32" s="31"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="14">
+      <c r="D32" s="35"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="45"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="16">
+        <v>43829</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
         <v>43799</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="17">
-        <v>43829</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="12">
+      <c r="B34" s="7"/>
+      <c r="C34" s="11">
         <v>43830</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="16" t="s">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="44">
+      <c r="B35" s="23">
         <v>9000</v>
       </c>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="2"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="H35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/planning & devis.xlsx
+++ b/planning & devis.xlsx
@@ -438,6 +438,24 @@
     <xf numFmtId="16" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -506,24 +524,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,7 +838,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D35"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +846,7 @@
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" style="12" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
@@ -855,14 +855,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="19"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -890,7 +890,7 @@
       <c r="C4" s="10">
         <v>43800</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="26" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="3"/>
@@ -899,31 +899,31 @@
       <c r="A5" s="10">
         <v>43771</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="10">
         <v>43801</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="27"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>43772</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="10">
         <v>43802</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="28"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>43773</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="10">
         <v>43803</v>
       </c>
@@ -934,7 +934,7 @@
       <c r="A8" s="10">
         <v>43774</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="10">
         <v>43804</v>
       </c>
@@ -949,7 +949,7 @@
       <c r="C9" s="10">
         <v>43805</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="32" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="3"/>
@@ -962,7 +962,7 @@
       <c r="C10" s="10">
         <v>43806</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="27"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -975,38 +975,38 @@
       <c r="C11" s="10">
         <v>43807</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="27"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>43778</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="10">
         <v>43808</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="27"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>43779</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="10">
         <v>43809</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="28"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>43780</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="10">
         <v>43810</v>
       </c>
@@ -1017,7 +1017,7 @@
       <c r="A15" s="10">
         <v>43781</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="10">
         <v>43811</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="C17" s="10">
         <v>43813</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="33" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="3"/>
@@ -1054,42 +1054,42 @@
       <c r="A18" s="10">
         <v>43784</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="10">
         <v>43814</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="34"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>43785</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="10">
         <v>43815</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="34"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>43786</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="10">
         <v>43816</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="35"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>43787</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="10">
         <v>43817</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="A22" s="10">
         <v>43788</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="10">
         <v>43818</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="C23" s="10">
         <v>43819</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="36" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="3"/>
@@ -1128,7 +1128,7 @@
       <c r="C24" s="10">
         <v>43820</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="37"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1141,38 +1141,38 @@
       <c r="C25" s="10">
         <v>43821</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="37"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>43792</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="10">
         <v>43822</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="37"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>43793</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="10">
         <v>43823</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="38"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>43794</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="10">
         <v>43824</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="A29" s="10">
         <v>43795</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="10">
         <v>43825</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="C30" s="10">
         <v>43826</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="39" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="3"/>
@@ -1211,25 +1211,25 @@
       <c r="C31" s="10">
         <v>43827</v>
       </c>
-      <c r="D31" s="34"/>
+      <c r="D31" s="40"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>43798</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="10">
         <v>43828</v>
       </c>
-      <c r="D32" s="35"/>
+      <c r="D32" s="41"/>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="16">
         <v>43829</v>
       </c>
@@ -1255,20 +1255,15 @@
       <c r="A35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="29">
         <v>9000</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
       <c r="H35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="D4:D6"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="D9:D13"/>
@@ -1277,6 +1272,11 @@
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
